--- a/test_cases/NewPetPos.xlsx
+++ b/test_cases/NewPetPos.xlsx
@@ -1,82 +1,63 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="Calc"/>
-  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="All Combinations" sheetId="1" state="visible" r:id="rId3"/>
+    <sheet name="All Combinations" sheetId="1" r:id="rId4"/>
   </sheets>
-  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
-  <extLst>
-    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
-      <loext:extCalcPr stringRefSyntax="ExcelA1"/>
-    </ext>
-  </extLst>
+  <definedNames/>
+  <calcPr calcId="999999" calcMode="auto" calcCompleted="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="6">
   <si>
-    <t xml:space="preserve">id</t>
+    <t>id</t>
   </si>
   <si>
-    <t xml:space="preserve">name</t>
+    <t>name</t>
   </si>
   <si>
-    <t xml:space="preserve">Test</t>
+    <t>Test</t>
   </si>
   <si>
-    <t xml:space="preserve">tesT</t>
+    <t>tesT</t>
   </si>
   <si>
-    <t xml:space="preserve">TesT</t>
+    <t>TesT</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="General"/>
-  </numFmts>
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xml:space="preserve">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
+      <b val="0"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="0"/>
-      <charset val="204"/>
-    </font>
-    <font>
-      <b val="true"/>
+      <b val="1"/>
+      <i val="0"/>
+      <strike val="0"/>
+      <u val="none"/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
-      <family val="0"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -84,108 +65,73 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="gray125"/>
+      <patternFill patternType="gray125">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
-    <border diagonalUp="false" diagonalDown="false">
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
+    <border/>
   </borders>
-  <cellStyleXfs count="20">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
-  </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
   </cellXfs>
-  <cellStyles count="6">
+  <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotTableStyle1"/>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:srgbClr val="000000"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:srgbClr val="ffffff"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1f497d"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="eeece1"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4f81bd"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="c0504d"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9bbb59"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064a2"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4bacc6"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="f79646"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000ff"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
         <a:srgbClr val="800080"/>
@@ -193,229 +139,376 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" pitchFamily="0" charset="1"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme>
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="50000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="35000">
               <a:schemeClr val="phClr">
                 <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="1"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:shade val="51000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="80000">
               <a:schemeClr val="phClr">
                 <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:lin ang="16200000" scaled="0"/>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
         <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
         <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
           <a:prstDash val="solid"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="40000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="40000">
               <a:schemeClr val="phClr">
                 <a:tint val="45000"/>
                 <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
-        <a:gradFill>
+        <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
                 <a:tint val="80000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
                 <a:shade val="30000"/>
+                <a:satMod val="200000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
           <a:path path="circle">
             <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
           </a:path>
-          <a:tileRect l="0" t="0" r="0" b="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <sheetPr filterMode="false">
-    <pageSetUpPr fitToPage="false"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xml:space="preserve">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F13" activeCellId="0" sqref="F13"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="14.25" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultRowHeight="14.4" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="14"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="5.86"/>
+    <col min="2" max="2" width="13.996582" bestFit="true" customWidth="true" style="0"/>
+    <col min="3" max="3" width="5.855713" bestFit="true" customWidth="true" style="0"/>
   </cols>
   <sheetData>
-    <row r="1" s="2" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:3" s="1" customFormat="1">
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="0"/>
-    </row>
-    <row r="2" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="3" t="n">
+    </row>
+    <row r="2" spans="1:3" s="2" customFormat="1">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="0"/>
-    </row>
-    <row r="3" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="3" t="n">
+    </row>
+    <row r="3" spans="1:3" s="2" customFormat="1">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3" s="2">
         <v>1</v>
       </c>
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="0"/>
-    </row>
-    <row r="4" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="3" t="n">
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2">
         <v>1</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="0"/>
-    </row>
-    <row r="5" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="3" t="n">
+    </row>
+    <row r="5" spans="1:3" s="2" customFormat="1">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" s="2" customFormat="1">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2">
         <v>21474836478</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C6" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C5" s="0"/>
-    </row>
-    <row r="6" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="3" t="n">
+    </row>
+    <row r="7" spans="1:3" s="2" customFormat="1">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2">
         <v>21474836478</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C7" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="C6" s="0"/>
-    </row>
-    <row r="7" s="3" customFormat="true" ht="14.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="3" t="n">
+    </row>
+    <row r="8" spans="1:3" s="2" customFormat="1">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8" s="2">
         <v>21474836478</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="0"/>
+    </row>
+    <row r="9" spans="1:3" s="2" customFormat="1">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9" s="2">
+        <v>21474836478</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>5</v>
+      </c>
     </row>
   </sheetData>
-  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
-  <pageSetup paperSize="1" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
-  <headerFooter differentFirst="false" differentOddEven="false">
+  <sheetProtection sheet="false" objects="false" scenarios="false" formatCells="false" formatColumns="false" formatRows="false" insertColumns="false" insertRows="false" insertHyperlinks="false" deleteColumns="false" deleteRows="false" selectLockedCells="false" sort="false" autoFilter="false" pivotTables="false" selectUnlockedCells="false"/>
+  <printOptions gridLines="false" gridLinesSet="true"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="1" orientation="default" scale="100" fitToHeight="1" fitToWidth="1"/>
+  <headerFooter differentOddEven="false" differentFirst="false" scaleWithDoc="true" alignWithMargins="true">
     <oddHeader/>
     <oddFooter/>
+    <evenHeader/>
+    <evenFooter/>
+    <firstHeader/>
+    <firstFooter/>
   </headerFooter>
 </worksheet>
 </file>